--- a/medicine/Enfance/Stibane/Stibane.xlsx
+++ b/medicine/Enfance/Stibane/Stibane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Van Linthout, dit Stibane, né le 21 décembre 1958 à Hermalle-sous-Argenteau, (province de Liège), est un dessinateur de bande dessinée, auteur et illustrateur belge.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luc Van Linthout naît à Hermalle-sous-Argenteau[1], près de Liège en Belgique, le 21 décembre 1958[2]. Aîné d’une famille nombreuse et frère jumeau de Georges Van Linthout[3], il passe toute son enfance à Cheratte, un village connu pour son charbonnage et ses dessinateurs de BD (Walthéry, Mittéï).
-Il fait ses études à École supérieure des arts Saint-Luc de Liège, en arts plastiques, puis en illustration et se lance dans la bande dessinée et l'illustration au début des années 1980. Stibane fait son entrée dans Tintin en 1986[4]. Il réalise Woody et Willy puis Peticric sur un scénario de Michel Dusart[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luc Van Linthout naît à Hermalle-sous-Argenteau, près de Liège en Belgique, le 21 décembre 1958. Aîné d’une famille nombreuse et frère jumeau de Georges Van Linthout, il passe toute son enfance à Cheratte, un village connu pour son charbonnage et ses dessinateurs de BD (Walthéry, Mittéï).
+Il fait ses études à École supérieure des arts Saint-Luc de Liège, en arts plastiques, puis en illustration et se lance dans la bande dessinée et l'illustration au début des années 1980. Stibane fait son entrée dans Tintin en 1986. Il réalise Woody et Willy puis Peticric sur un scénario de Michel Dusart.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En bande dessinée, Stibane réalise la reprise du Petit Noël, sous la direction de Franquin (Marsu Productions). Il dessine aussi l'adaptation en bande dessinée de Sherlock Holmes avec André-Paul Duchâteau au scénario aux éditions Lefrancq, dans la collection « BDétectives ». Trois albums paraissent au début des années 1990[6].
-Avec son frère comme scénariste, il dessine la série Les Enquêtes Scapola (trois albums chez Casterman). Toujours avec Georges Van Linthout et aussi avec Didgé, il signe l'adaptation de la série télévisée Caméra Café (cinq albums de 2003 à 2006 chez Jungle)[6].
-En 2006, il réalise aussi un album de BD sur les humoristes français Chevallier et Laspales. En collaboration avec Bruno Di Sano, il a publié les deux premiers tomes des Aventures de Fred et Jamy, une adaptation de l'émission C'est pas sorcier. En 2012, il réalise avec Didgé et Georges Van Linthout une adaptation BD de la série télévisée Camping paradis[6].
-En 1990, Stibane rend un hommage graphique à François Walthéry dans le livre d'hommage collectif Natacha - Spécial 20e anniversaire - Nostalgia (Marsu Productions), qui célèbre les 20 ans de la série Natacha de Walthéry[2].
-En plus de son travail d'auteur de BD, Stibane est aussi un auteur et illustrateur pour la jeunesse. Il a écrit et dessiné une vingtaine d'albums destinés aux enfants, principalement aux éditions Pastel / L'École des Loisirs[7]. En 2000, il illustre l'album jeunesse La Petite Souris d'Halloween, sur texte de Carl Norac[6].
-Les auteurs du Comité belge de la Société civile des auteurs multimédia (SCAM) lui octroient une bourse d’appoint de développement d’un projet littéraire pour Costello, l'histoire d'une famille calabraise à travers le XXe siècle lors de la cession d'automne 2017[8],[7]. 
-Enfin, Luc Van Linthout est également artiste peintre[9],[10]. Il pratique aussi la sculpture et la céramique[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bande dessinée, Stibane réalise la reprise du Petit Noël, sous la direction de Franquin (Marsu Productions). Il dessine aussi l'adaptation en bande dessinée de Sherlock Holmes avec André-Paul Duchâteau au scénario aux éditions Lefrancq, dans la collection « BDétectives ». Trois albums paraissent au début des années 1990.
+Avec son frère comme scénariste, il dessine la série Les Enquêtes Scapola (trois albums chez Casterman). Toujours avec Georges Van Linthout et aussi avec Didgé, il signe l'adaptation de la série télévisée Caméra Café (cinq albums de 2003 à 2006 chez Jungle).
+En 2006, il réalise aussi un album de BD sur les humoristes français Chevallier et Laspales. En collaboration avec Bruno Di Sano, il a publié les deux premiers tomes des Aventures de Fred et Jamy, une adaptation de l'émission C'est pas sorcier. En 2012, il réalise avec Didgé et Georges Van Linthout une adaptation BD de la série télévisée Camping paradis.
+En 1990, Stibane rend un hommage graphique à François Walthéry dans le livre d'hommage collectif Natacha - Spécial 20e anniversaire - Nostalgia (Marsu Productions), qui célèbre les 20 ans de la série Natacha de Walthéry.
+En plus de son travail d'auteur de BD, Stibane est aussi un auteur et illustrateur pour la jeunesse. Il a écrit et dessiné une vingtaine d'albums destinés aux enfants, principalement aux éditions Pastel / L'École des Loisirs. En 2000, il illustre l'album jeunesse La Petite Souris d'Halloween, sur texte de Carl Norac.
+Les auteurs du Comité belge de la Société civile des auteurs multimédia (SCAM) lui octroient une bourse d’appoint de développement d’un projet littéraire pour Costello, l'histoire d'une famille calabraise à travers le XXe siècle lors de la cession d'automne 2017,. 
+Enfin, Luc Van Linthout est également artiste peintre,. Il pratique aussi la sculpture et la céramique.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stibane est marié à Arlette, ils ont leur pied-à-terre en France, dans la Haute Vallée de l'Oule à Bruis[12]. Il demeure dans le pays de Herve[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stibane est marié à Arlette, ils ont leur pied-à-terre en France, dans la Haute Vallée de l'Oule à Bruis. Il demeure dans le pays de Herve.
 </t>
         </is>
       </c>
@@ -613,8 +631,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-La Petite Histoire de la prostitution (P&amp;T Productions)
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Petite Histoire de la prostitution (P&amp;T Productions)
 Le Cul et l’écu ou la petite histoire de la prostitution (scénario Stibane, dessin Didgé, 1993)
 La Petite Histoire de la prostitution ou le Cul et l’écu (scénario Didgé, dessin Stibane, 1996)
 La Main de ma sœur (avec Didgé sous les pseudonymes de Bloody &amp; Gutsy, P&amp;T Productions)
@@ -626,19 +649,90 @@
 Réussir le bac sans se fouler (2009)  (ISBN 9782874424281)
 Le Permis sans se fouler (2009)  (ISBN 9782874427060)
 1. Ça sent bon les vacances !, Jungle, 21 septembre 2012Scénario : Didier Chardez - Dessin : Stibane - Couleurs : Van Linthout, Georges -  (ISBN 978-2-8222-0252-7)
-Philibert Vrau dit Le Saint de Lille[13], Coccinelle BD, Durbuy, 1 février 2014Scénario : Didier Chardez - Dessin : Francis Carin - Couleurs : Stibane -  (ISBN 978-2-930273-79-2)
-La Cabane[14], La Boîte à Bulles, 7 janvier 2015Scénario : Benjamin Fischer - Dessin et couleurs : Stibane -  (ISBN 9782849532072)
+Philibert Vrau dit Le Saint de Lille, Coccinelle BD, Durbuy, 1 février 2014Scénario : Didier Chardez - Dessin : Francis Carin - Couleurs : Stibane -  (ISBN 978-2-930273-79-2)
+La Cabane, La Boîte à Bulles, 7 janvier 2015Scénario : Benjamin Fischer - Dessin et couleurs : Stibane -  (ISBN 9782849532072)
 1. Faida - Anna, Cerises &amp; Coquelicots, 15 avril 2016Scénario : Benjamin Fischer - Dessin et couleurs : Stibane -  (ISBN 9782914880183)
 Retour en Calabre, Le Chaînon Manquant Éditions, 16 novembre 2018Scénario : Benjamin Fischer - Dessin : Stibane - Couleurs : quadrichromie -  (ISBN 9782930669175)
 T'es confiné, mais ça t'empêche pas de l'ouvrir !, Le Chaînon Manquant Éditions, 22 octobre 2020Scénario, dessin et couleurs : Stibane -  (ISBN 978-2-9602592-2-3)
-2. L'Alsace à tout prix ![15], éditions du Signe, Strasbourg, 2 septembre 2021Scénario : Jean Paillot - Dessin : Francis Carin, Didier Chardez - Couleurs : Stibane -  (ISBN 978-2-7468-3852-9)
-Gueules Cassées - Sourire Quand Même - 100 ans, éditions du Signe, Strasbourg, 24 septembre 2021Scénario : Isabelle Gaudon - Dessin : Francis Carin, Didier Chardez - Couleurs : Stibane -  (ISBN 978-2-7468-4010-2), (BNF 46904691).
-Collectifs
-Natacha - Spécial 20e anniversaire - Nostalgia, Marsu Productions, Monaco, février 1990Scénario : collectif - Dessin : collectif dont Stibane - Couleurs : quadrichromie -  (ISBN 2-907159-04-6)Participation : Hommage à Walthéry.
-Putinkon, le retour[16], P&amp;T Production, 1994Scénario : Éric Thomas - Dessin : collectif dont Stibane - Couleurs : collectif -  (ISBN 2-87265-033-4)
-Albums jeunesse
-Auteur et illustrateur
-Victor et Orta, L'École des loisirs, 1994  (ISBN 9782211016698)
+2. L'Alsace à tout prix !, éditions du Signe, Strasbourg, 2 septembre 2021Scénario : Jean Paillot - Dessin : Francis Carin, Didier Chardez - Couleurs : Stibane -  (ISBN 978-2-7468-3852-9)
+Gueules Cassées - Sourire Quand Même - 100 ans, éditions du Signe, Strasbourg, 24 septembre 2021Scénario : Isabelle Gaudon - Dessin : Francis Carin, Didier Chardez - Couleurs : Stibane -  (ISBN 978-2-7468-4010-2), (BNF 46904691).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stibane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stibane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Natacha - Spécial 20e anniversaire - Nostalgia, Marsu Productions, Monaco, février 1990Scénario : collectif - Dessin : collectif dont Stibane - Couleurs : quadrichromie -  (ISBN 2-907159-04-6)Participation : Hommage à Walthéry.
+Putinkon, le retour, P&amp;T Production, 1994Scénario : Éric Thomas - Dessin : collectif dont Stibane - Couleurs : collectif -  (ISBN 2-87265-033-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stibane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stibane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Victor et Orta, L'École des loisirs, 1994  (ISBN 9782211016698)
 L'Arbre aux corbeaux, L'École des loisirs, 1995  (ISBN 9782211029650)
 Babou, L'École des loisirs, 1996  (ISBN 2-211-03852-2)
 Obébé, L'École des loisirs, 1997  (ISBN 9782211043953)
@@ -651,9 +745,47 @@
 Bon papa, L'École des loisirs, coll. « Pastel », 2012  (ISBN 9782211209458)
 Tous des gagnants !, L'École des loisirs, coll. « Pastel », 2013  (ISBN 9782211212342)
 Où est la lumière ?, L'École des loisirs, coll. « Pastel », 2014  (ISBN 9782211215664)
-Angèle et Lucas, L'École des loisirs, coll. « Pastel », 2015  (ISBN 9782211222037)
-Illustrateur
-Lion chasse, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994  (ISBN 9782211023665)
+Angèle et Lucas, L'École des loisirs, coll. « Pastel », 2015  (ISBN 9782211222037)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stibane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stibane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lion chasse, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994  (ISBN 9782211023665)
 La Première toile, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994  (ISBN 9782211057554)
 Lion chasse, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1996
 Lili vole, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1996  (ISBN 9782211036672)
